--- a/datatemplates/pedigree-data.xlsx
+++ b/datatemplates/pedigree-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud Accounts\Google Drive\CWR project_JHI + Crop Trust\Draft Templates\templates-with-example-data_BK+EM+SR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>Pedigree Notation</t>
   </si>
@@ -65,6 +65,90 @@
   </si>
   <si>
     <t>Help and Assistance</t>
+  </si>
+  <si>
+    <t>CACTUAR-1</t>
+  </si>
+  <si>
+    <t>CACTUAR-2</t>
+  </si>
+  <si>
+    <t>CACTUAR-3</t>
+  </si>
+  <si>
+    <t>CACTUAR-4</t>
+  </si>
+  <si>
+    <t>CACTUAR-5</t>
+  </si>
+  <si>
+    <t>CACTUAR-6</t>
+  </si>
+  <si>
+    <t>CACTUAR-7</t>
+  </si>
+  <si>
+    <t>CACTUAR-8</t>
+  </si>
+  <si>
+    <t>Purdy Notation</t>
+  </si>
+  <si>
+    <t>Sebastian Raubach</t>
+  </si>
+  <si>
+    <t>Lamacraft Notation</t>
+  </si>
+  <si>
+    <t>CACTUAR-1 / CACTUAR-2</t>
+  </si>
+  <si>
+    <t>CACTUAR-1 / CACTUAR-3</t>
+  </si>
+  <si>
+    <t>CACTUAR-1 / CACTUAR-4</t>
+  </si>
+  <si>
+    <t>CACTUAR-5 / CACTUAR-1</t>
+  </si>
+  <si>
+    <t>CACTUAR-6 / CACTUAR-4</t>
+  </si>
+  <si>
+    <t>CACTUAR-1 * CACTUAR-2</t>
+  </si>
+  <si>
+    <t>CACTUAR-1 * CACTUAR-3</t>
+  </si>
+  <si>
+    <t>CACTUAR-1 * CACTUAR-4</t>
+  </si>
+  <si>
+    <t>CACTUAR-5 * CACTUAR-1</t>
+  </si>
+  <si>
+    <t>CACTUAR-6 * CACTUAR-4</t>
+  </si>
+  <si>
+    <t>All our pedigree data V0.1</t>
+  </si>
+  <si>
+    <t>Simple Cross</t>
+  </si>
+  <si>
+    <t>Backcross</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>CACTUAR-6 / CACTUAR-6</t>
+  </si>
+  <si>
+    <t>CACTUAR-6 * CACTUAR-6</t>
+  </si>
+  <si>
+    <t>Two types of pedigree information can be provided (Pedigree strings into sheet 'DATA-STRING' or atomised pedigree definitions into sheet 'DATA'). In all cases the MCPD field "ACCENUMB" should be used to identify the line/germplasm.</t>
   </si>
   <si>
     <r>
@@ -78,111 +162,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XXXXXX@croptrust.org</t>
+      <t>germinate@hutton.ac.uk</t>
     </r>
-  </si>
-  <si>
-    <t>CACTUAR-1</t>
-  </si>
-  <si>
-    <t>CACTUAR-2</t>
-  </si>
-  <si>
-    <t>CACTUAR-3</t>
-  </si>
-  <si>
-    <t>CACTUAR-4</t>
-  </si>
-  <si>
-    <t>CACTUAR-5</t>
-  </si>
-  <si>
-    <t>CACTUAR-6</t>
-  </si>
-  <si>
-    <t>CACTUAR-7</t>
-  </si>
-  <si>
-    <t>CACTUAR-8</t>
-  </si>
-  <si>
-    <t>Purdy Notation</t>
-  </si>
-  <si>
-    <t>Sebastian Raubach</t>
-  </si>
-  <si>
-    <t>Lamacraft Notation</t>
-  </si>
-  <si>
-    <t>Paul Shaw</t>
-  </si>
-  <si>
-    <t>CACTUAR-1 / CACTUAR-2</t>
-  </si>
-  <si>
-    <t>CACTUAR-1 / CACTUAR-3</t>
-  </si>
-  <si>
-    <t>CACTUAR-1 / CACTUAR-4</t>
-  </si>
-  <si>
-    <t>CACTUAR-5 / CACTUAR-1</t>
-  </si>
-  <si>
-    <t>CACTUAR-6 / CACTUAR-4</t>
-  </si>
-  <si>
-    <t>CACTUAR-1 * CACTUAR-2</t>
-  </si>
-  <si>
-    <t>CACTUAR-1 * CACTUAR-3</t>
-  </si>
-  <si>
-    <t>CACTUAR-1 * CACTUAR-4</t>
-  </si>
-  <si>
-    <t>CACTUAR-5 * CACTUAR-1</t>
-  </si>
-  <si>
-    <t>CACTUAR-6 * CACTUAR-4</t>
-  </si>
-  <si>
-    <t>All our pedigree data V0.1</t>
-  </si>
-  <si>
-    <t>Unknown Source</t>
-  </si>
-  <si>
-    <t>Simple Cross</t>
-  </si>
-  <si>
-    <t>Backcross</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>CACTUAR-6 / CACTUAR-6</t>
-  </si>
-  <si>
-    <t>CACTUAR-6 * CACTUAR-6</t>
-  </si>
-  <si>
-    <t>GS number</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Two types of pedigree information can be provided (Pedigree strings into sheet 'DATA-STRING' or atomised pedigree definitions into sheet 'DATA'). In all cases the MCPD field "ACCENUMB" should be used to identify the line/germplasm.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -342,12 +323,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -387,7 +367,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
     </tableStyle>
@@ -404,56 +384,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ACCENUMB"/>
-    <tableColumn id="2" name="Parent 1 ACCENUMB"/>
-    <tableColumn id="3" name="Parent 2 ACCENUMB"/>
-    <tableColumn id="4" name="Description of Crossing Procedure (if applicable)"/>
-    <tableColumn id="5" name="Pedigree Description"/>
-    <tableColumn id="6" name="Pedigree Author"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ACCENUMB"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parent 1 ACCENUMB"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Parent 2 ACCENUMB"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description of Crossing Procedure (if applicable)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Pedigree Description"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pedigree Author"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:E2"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ACCENUMB"/>
-    <tableColumn id="2" name="Pedigree string"/>
-    <tableColumn id="3" name="Pedigree Notation"/>
-    <tableColumn id="4" name="Pedigree Description"/>
-    <tableColumn id="5" name="Pedigree Author"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ACCENUMB"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pedigree string"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ACCENUMB"/>
-    <tableColumn id="2" name="Parent 1 ACCENUMB"/>
-    <tableColumn id="3" name="Parent 2 ACCENUMB"/>
-    <tableColumn id="4" name="Description of Crossing Procedure (if applicable)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ACCENUMB"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Parent 1 ACCENUMB"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Parent 2 ACCENUMB"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Description of Crossing Procedure (if applicable)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table25" displayName="Table25" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ACCENUMB"/>
-    <tableColumn id="2" name="Pedigree string" dataDxfId="0"/>
-    <tableColumn id="3" name="Pedigree Notation"/>
-    <tableColumn id="4" name="Pedigree Description"/>
-    <tableColumn id="5" name="Pedigree Author"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table25" displayName="Table25" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -721,78 +697,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="99.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,23 +766,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -829,20 +795,20 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="F1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="F1" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -852,23 +818,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -878,19 +842,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="E1"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -900,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
@@ -910,16 +866,16 @@
       <selection activeCell="F1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -932,164 +888,164 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="F1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description of crossing" prompt="Enter information relating to the crossing procedure here if known. This is an optional column and should only be used if required." sqref="D1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="F1" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1099,27 +1055,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1129,223 +1083,143 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Author" prompt="The person responsible for generating the pedigree data." sqref="E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/datatemplates/pedigree-data.xlsx
+++ b/datatemplates/pedigree-data.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B5202-C38F-4873-9A06-656D7372E1D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +702,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datatemplates/pedigree-data.xlsx
+++ b/datatemplates/pedigree-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0B5202-C38F-4873-9A06-656D7372E1D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD84253-E47E-4E9E-81EE-54B46C9126F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="2" r:id="rId1"/>
@@ -300,10 +300,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -336,11 +337,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="1" builtinId="11"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -369,8 +387,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -400,7 +418,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:C2" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ACCENUMB"/>
@@ -429,7 +447,7 @@
   <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ACCENUMB"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pedigree string" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Pedigree Notation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -701,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -771,7 +789,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,19 +802,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -804,6 +822,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:C2 E2">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="FEMALE Parent" prompt="This is the female parent." sqref="B1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="MALE Parent" prompt="This is the male parent." sqref="C1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
@@ -812,8 +835,9 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedgiree Description" prompt="A description that describes the pedigree such as when it was generated or the germplasm it contains." sqref="E1" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -822,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,17 +858,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:C2">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree String" prompt="The full pedigree not atomised into component parts. For example (A*B)*(C*D)" sqref="B1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Pedigree Notation" prompt="If known please indicate Purdy or Lamacraft notations OR the name of the pedigree nomenclature." sqref="C1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
